--- a/pds_new_all_RI_check2.xlsx
+++ b/pds_new_all_RI_check2.xlsx
@@ -485,142 +485,142 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>release_length_8</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_9</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_10</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_11</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_12</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_13</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_14</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_15</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_16</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_17</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_18</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_19</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_20</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_21</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_22</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_23</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_24</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_25</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_26</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_27</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_28</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_29</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_bsb</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_bsb</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_scup</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_scup</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
           <t>keep_length_30</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_8</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_9</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_10</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_11</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_12</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_13</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_14</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_15</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_16</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_17</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_18</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_19</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_20</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_21</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_22</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_23</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_24</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_25</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_26</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_27</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_28</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_29</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>release_length_30</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_bsb</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_bsb</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_scup</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_scup</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
@@ -661,13 +661,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>502.8809164063704</v>
+        <v>757.4720089516565</v>
       </c>
       <c r="B2">
-        <v>2453.584593413915</v>
+        <v>1853.082712849594</v>
       </c>
       <c r="C2">
-        <v>1526.976237917035</v>
+        <v>1576.883732873288</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -700,76 +700,76 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>223.7653695671907</v>
       </c>
       <c r="O2">
-        <v>113.7676613072632</v>
+        <v>128.4029608423829</v>
       </c>
       <c r="P2">
-        <v>132.6884055890837</v>
+        <v>143.6675805868598</v>
       </c>
       <c r="Q2">
-        <v>115.940361594293</v>
+        <v>121.1432529416548</v>
       </c>
       <c r="R2">
-        <v>33.79671796026319</v>
+        <v>32.83325511637745</v>
       </c>
       <c r="S2">
-        <v>26.37118383087507</v>
+        <v>23.11244567493134</v>
       </c>
       <c r="T2">
-        <v>34.80672375800914</v>
+        <v>32.0288296897987</v>
       </c>
       <c r="U2">
-        <v>6.240720999445836</v>
+        <v>7.915758110505402</v>
       </c>
       <c r="V2">
-        <v>8.197348652387555</v>
+        <v>7.878183063545627</v>
       </c>
       <c r="W2">
-        <v>22.04027661989323</v>
+        <v>24.50148499367071</v>
       </c>
       <c r="X2">
-        <v>1.070644403644627</v>
+        <v>2.061111796978723</v>
       </c>
       <c r="Y2">
-        <v>7.941154082935409</v>
+        <v>10.050737647368</v>
       </c>
       <c r="Z2">
-        <v>0.01971760827640268</v>
+        <v>3.828692171473854</v>
       </c>
       <c r="AA2">
-        <v>7.002312969269345</v>
+        <v>11.85827374374346</v>
       </c>
       <c r="AB2">
-        <v>20.60569140351343</v>
+        <v>11.00102244203905</v>
       </c>
       <c r="AC2">
-        <v>18.67966412291399</v>
+        <v>39.34333201806396</v>
       </c>
       <c r="AD2">
-        <v>66.14438412840019</v>
+        <v>117.4434857880242</v>
       </c>
       <c r="AE2">
-        <v>193.8293593934545</v>
+        <v>171.1127663904879</v>
       </c>
       <c r="AF2">
-        <v>258.2031077396104</v>
+        <v>195.8373697257007</v>
       </c>
       <c r="AG2">
-        <v>278.4892073965376</v>
+        <v>361.764780056544</v>
       </c>
       <c r="AH2">
-        <v>447.7422685818413</v>
+        <v>454.2665766033841</v>
       </c>
       <c r="AI2">
-        <v>469.2473966609737</v>
+        <v>486.6264139101323</v>
       </c>
       <c r="AJ2">
-        <v>488.2349274018719</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>205.4062736155284</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -805,28 +805,28 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1576.883732873288</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>878.8144779688657</v>
       </c>
       <c r="AY2">
-        <v>1526.976237917035</v>
+        <v>131.4183537902856</v>
       </c>
       <c r="AZ2">
-        <v>842.3728617576554</v>
+        <v>0.1110389203923416</v>
       </c>
       <c r="BA2">
-        <v>118.8950177157996</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>490.2868085772257</v>
+        <v>-6303.551048248154</v>
       </c>
       <c r="BC2">
-        <v>1086.584022646594</v>
+        <v>1121.314079349669</v>
       </c>
       <c r="BD2">
-        <v>4564.999999999997</v>
+        <v>4518</v>
       </c>
       <c r="BE2">
         <v>1</v>
@@ -847,13 +847,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>5449.722537950471</v>
+        <v>8497.207013606139</v>
       </c>
       <c r="B3">
-        <v>26747.58036404365</v>
+        <v>21098.93214878535</v>
       </c>
       <c r="C3">
-        <v>16527.13262297612</v>
+        <v>18431.90179216282</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -886,76 +886,76 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2440.047171997714</v>
       </c>
       <c r="O3">
-        <v>1226.211818490816</v>
+        <v>1407.187449074929</v>
       </c>
       <c r="P3">
-        <v>1438.992347556977</v>
+        <v>1630.877121339265</v>
       </c>
       <c r="Q3">
-        <v>1261.438857854435</v>
+        <v>1389.335068501255</v>
       </c>
       <c r="R3">
-        <v>370.195831695698</v>
+        <v>371.7925052590637</v>
       </c>
       <c r="S3">
-        <v>284.3046421233225</v>
+        <v>297.9863138228632</v>
       </c>
       <c r="T3">
-        <v>375.4627298817474</v>
+        <v>354.9351926187842</v>
       </c>
       <c r="U3">
-        <v>63.01667963223845</v>
+        <v>83.34336146564775</v>
       </c>
       <c r="V3">
-        <v>87.47575371196437</v>
+        <v>122.4392913307487</v>
       </c>
       <c r="W3">
-        <v>240.4454865712752</v>
+        <v>298.5375542451487</v>
       </c>
       <c r="X3">
-        <v>11.29220278717215</v>
+        <v>18.44384943471175</v>
       </c>
       <c r="Y3">
-        <v>90.64861795910601</v>
+        <v>82.28213451600705</v>
       </c>
       <c r="Z3">
-        <v>0.2375696857191009</v>
+        <v>44.05705704176476</v>
       </c>
       <c r="AA3">
-        <v>75.75591216589433</v>
+        <v>167.821306133854</v>
       </c>
       <c r="AB3">
-        <v>223.5627547318662</v>
+        <v>117.6756218753313</v>
       </c>
       <c r="AC3">
-        <v>206.9195106991967</v>
+        <v>439.3037752965807</v>
       </c>
       <c r="AD3">
-        <v>719.3844781103148</v>
+        <v>1303.579697733282</v>
       </c>
       <c r="AE3">
-        <v>2134.965810904077</v>
+        <v>2144.061402101901</v>
       </c>
       <c r="AF3">
-        <v>2831.655026015166</v>
+        <v>2293.868610893651</v>
       </c>
       <c r="AG3">
-        <v>3009.751423925906</v>
+        <v>4017.898234015428</v>
       </c>
       <c r="AH3">
-        <v>4885.088793801519</v>
+        <v>4936.6154526477</v>
       </c>
       <c r="AI3">
-        <v>5081.334073062166</v>
+        <v>5634.050991045858</v>
       </c>
       <c r="AJ3">
-        <v>5342.840059122093</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2236.322521505446</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -991,28 +991,28 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>18431.90179216282</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>8776.351164306774</v>
       </c>
       <c r="AY3">
-        <v>16527.13262297612</v>
+        <v>1188.476608612298</v>
       </c>
       <c r="AZ3">
-        <v>9185.198463538531</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1287.948311275018</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1468.519856879103</v>
+        <v>-61530.06952266529</v>
       </c>
       <c r="BC3">
-        <v>11821.18078298996</v>
+        <v>12160.91504867625</v>
       </c>
       <c r="BD3">
-        <v>49669.00000000002</v>
+        <v>48720</v>
       </c>
       <c r="BE3">
         <v>1</v>
@@ -1033,13 +1033,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>36763.85372587454</v>
+        <v>54059.24607057862</v>
       </c>
       <c r="B4">
-        <v>178935.9737314196</v>
+        <v>132852.1000239776</v>
       </c>
       <c r="C4">
-        <v>111134.3026060545</v>
+        <v>112036.6173705909</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1072,76 +1072,76 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15851.13910330867</v>
       </c>
       <c r="O4">
-        <v>8366.215790459339</v>
+        <v>8832.007314606697</v>
       </c>
       <c r="P4">
-        <v>9657.597369574376</v>
+        <v>10164.7107436402</v>
       </c>
       <c r="Q4">
-        <v>8432.700479547646</v>
+        <v>7886.605272292774</v>
       </c>
       <c r="R4">
-        <v>2502.683231600765</v>
+        <v>2160.949221582911</v>
       </c>
       <c r="S4">
-        <v>1856.975118640438</v>
+        <v>1875.529982211809</v>
       </c>
       <c r="T4">
-        <v>2605.225721935714</v>
+        <v>2588.67865555794</v>
       </c>
       <c r="U4">
-        <v>442.2171190762022</v>
+        <v>647.1714240976936</v>
       </c>
       <c r="V4">
-        <v>601.7923029729093</v>
+        <v>632.3416493351419</v>
       </c>
       <c r="W4">
-        <v>1620.434988773098</v>
+        <v>2502.059898655331</v>
       </c>
       <c r="X4">
-        <v>80.28568010670287</v>
+        <v>109.2481953904374</v>
       </c>
       <c r="Y4">
-        <v>592.7653369763067</v>
+        <v>808.8046098990105</v>
       </c>
       <c r="Z4">
-        <v>4.960586211038163</v>
+        <v>398.813228511494</v>
       </c>
       <c r="AA4">
-        <v>539.724004901753</v>
+        <v>1049.012017741057</v>
       </c>
       <c r="AB4">
-        <v>1521.436841558339</v>
+        <v>764.8418388009061</v>
       </c>
       <c r="AC4">
-        <v>1380.118964472589</v>
+        <v>2606.49359951394</v>
       </c>
       <c r="AD4">
-        <v>4750.208299214578</v>
+        <v>7649.742329033336</v>
       </c>
       <c r="AE4">
-        <v>14009.15624648676</v>
+        <v>13051.04675195971</v>
       </c>
       <c r="AF4">
-        <v>18683.50978529239</v>
+        <v>13955.58667346662</v>
       </c>
       <c r="AG4">
-        <v>20102.92373064259</v>
+        <v>26963.2666131547</v>
       </c>
       <c r="AH4">
-        <v>32915.67541960064</v>
+        <v>31520.80060119481</v>
       </c>
       <c r="AI4">
-        <v>34244.235566303</v>
+        <v>34892.496370601</v>
       </c>
       <c r="AJ4">
-        <v>35699.32987448948</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>15089.65499845746</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>112036.6173705909</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>62817.9101150565</v>
       </c>
       <c r="AY4">
-        <v>111134.3026060545</v>
+        <v>10119.44922131288</v>
       </c>
       <c r="AZ4">
-        <v>61817.23254098731</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>8847.154251127429</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>11268.13546092084</v>
+        <v>-432724.68163037</v>
       </c>
       <c r="BC4">
-        <v>78972.77706903833</v>
+        <v>81652.48401983765</v>
       </c>
       <c r="BD4">
-        <v>331569.0000000001</v>
+        <v>328054</v>
       </c>
       <c r="BE4">
         <v>1</v>
@@ -1219,13 +1219,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>74458.07588343197</v>
+        <v>115153.6288547573</v>
       </c>
       <c r="B5">
-        <v>365527.8431664088</v>
+        <v>284538.9279781208</v>
       </c>
       <c r="C5">
-        <v>228090.2304728584</v>
+        <v>246444.6566129904</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1258,76 +1258,76 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>33735.55582730881</v>
       </c>
       <c r="O5">
-        <v>16679.24788340327</v>
+        <v>19148.84763085553</v>
       </c>
       <c r="P5">
-        <v>19652.45317739511</v>
+        <v>21766.81060586092</v>
       </c>
       <c r="Q5">
-        <v>17167.26288147877</v>
+        <v>18033.31532367598</v>
       </c>
       <c r="R5">
-        <v>5166.792879099572</v>
+        <v>4502.894250169628</v>
       </c>
       <c r="S5">
-        <v>3814.692074264561</v>
+        <v>3884.499512752434</v>
       </c>
       <c r="T5">
-        <v>5259.72716480884</v>
+        <v>5564.226019200837</v>
       </c>
       <c r="U5">
-        <v>928.7377656770041</v>
+        <v>1000.072107270132</v>
       </c>
       <c r="V5">
-        <v>1192.446022223412</v>
+        <v>1448.482696432545</v>
       </c>
       <c r="W5">
-        <v>3258.034664805934</v>
+        <v>4125.799890386959</v>
       </c>
       <c r="X5">
-        <v>161.5974410023459</v>
+        <v>338.1368843210996</v>
       </c>
       <c r="Y5">
-        <v>1172.305139587352</v>
+        <v>1604.988106522382</v>
       </c>
       <c r="Z5">
-        <v>4.778789685801207</v>
+        <v>735.3864004776526</v>
       </c>
       <c r="AA5">
-        <v>1019.230529150307</v>
+        <v>2146.859309782815</v>
       </c>
       <c r="AB5">
-        <v>3117.335844752855</v>
+        <v>1515.111481263406</v>
       </c>
       <c r="AC5">
-        <v>2823.837821122237</v>
+        <v>5826.096225485549</v>
       </c>
       <c r="AD5">
-        <v>9940.444794342233</v>
+        <v>16500.9109055753</v>
       </c>
       <c r="AE5">
-        <v>28742.0471024331</v>
+        <v>27601.50920701361</v>
       </c>
       <c r="AF5">
-        <v>38349.4279550003</v>
+        <v>31009.85045382344</v>
       </c>
       <c r="AG5">
-        <v>41553.25787027337</v>
+        <v>57157.67492587662</v>
       </c>
       <c r="AH5">
-        <v>67121.39489128426</v>
+        <v>65588.10817110058</v>
       </c>
       <c r="AI5">
-        <v>69794.41992449544</v>
+        <v>76457.42089772184</v>
       </c>
       <c r="AJ5">
-        <v>72448.9113744986</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>30617.53505905611</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1360,31 +1360,31 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>89456.20689523353</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>156988.4497177569</v>
       </c>
       <c r="AX5">
-        <v>83577.50199329414</v>
+        <v>141004.2914970008</v>
       </c>
       <c r="AY5">
-        <v>144512.7284795642</v>
+        <v>21646.1795825109</v>
       </c>
       <c r="AZ5">
-        <v>125626.9509965758</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>17599.31044182356</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>11330.86491761335</v>
+        <v>-896210.6890312027</v>
       </c>
       <c r="BC5">
-        <v>160986.8381180543</v>
+        <v>167076.8486131885</v>
       </c>
       <c r="BD5">
-        <v>643674.0000000002</v>
+        <v>638950</v>
       </c>
       <c r="BE5">
         <v>1</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>24727.33989599405</v>
+        <v>37571.8491017199</v>
       </c>
       <c r="B6">
-        <v>120362.6960151491</v>
+        <v>91151.94402012807</v>
       </c>
       <c r="C6">
-        <v>75995.03512920048</v>
+        <v>80957.04966299053</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1444,76 +1444,76 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>10820.61531130825</v>
       </c>
       <c r="O6">
-        <v>5595.996859320084</v>
+        <v>5707.392733048726</v>
       </c>
       <c r="P6">
-        <v>6491.119040124477</v>
+        <v>7136.806512099105</v>
       </c>
       <c r="Q6">
-        <v>5742.462854508951</v>
+        <v>5855.047269628028</v>
       </c>
       <c r="R6">
-        <v>1664.324883266489</v>
+        <v>1740.312310319811</v>
       </c>
       <c r="S6">
-        <v>1285.800962711968</v>
+        <v>1296.239583289721</v>
       </c>
       <c r="T6">
-        <v>1703.742831886454</v>
+        <v>1947.298271578463</v>
       </c>
       <c r="U6">
-        <v>287.0977067559792</v>
+        <v>442.242472073683</v>
       </c>
       <c r="V6">
-        <v>400.9951038401907</v>
+        <v>519.387736617549</v>
       </c>
       <c r="W6">
-        <v>1083.248619506621</v>
+        <v>1458.996076881331</v>
       </c>
       <c r="X6">
-        <v>56.15768768014738</v>
+        <v>73.53714713219449</v>
       </c>
       <c r="Y6">
-        <v>414.3009438290122</v>
+        <v>573.1482771525235</v>
       </c>
       <c r="Z6">
-        <v>2.092402563681518</v>
+        <v>313.3414493875201</v>
       </c>
       <c r="AA6">
-        <v>333.5745392872401</v>
+        <v>666.9414007914377</v>
       </c>
       <c r="AB6">
-        <v>1017.261008489961</v>
+        <v>566.5777066294844</v>
       </c>
       <c r="AC6">
-        <v>916.4515029331496</v>
+        <v>1802.490034428295</v>
       </c>
       <c r="AD6">
-        <v>3156.695064161748</v>
+        <v>5376.051791238031</v>
       </c>
       <c r="AE6">
-        <v>9430.300672212428</v>
+        <v>9209.264508029803</v>
       </c>
       <c r="AF6">
-        <v>12624.94013379695</v>
+        <v>9787.598447461854</v>
       </c>
       <c r="AG6">
-        <v>13591.76897997257</v>
+        <v>17734.89754863739</v>
       </c>
       <c r="AH6">
-        <v>21978.43829436641</v>
+        <v>21860.61918022515</v>
       </c>
       <c r="AI6">
-        <v>22958.95695291055</v>
+        <v>23834.16195329911</v>
       </c>
       <c r="AJ6">
-        <v>24262.92798042774</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>10091.38088659036</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1546,31 +1546,31 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>29477.35228320571</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>51479.69737978481</v>
       </c>
       <c r="AX6">
-        <v>27732.21342237642</v>
+        <v>41776.43867356011</v>
       </c>
       <c r="AY6">
-        <v>48262.82170682406</v>
+        <v>6226.963091560037</v>
       </c>
       <c r="AZ6">
-        <v>41424.55278734215</v>
+        <v>0.8254005905222167</v>
       </c>
       <c r="BA6">
-        <v>5906.907367535517</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>2177.908182848138</v>
+        <v>-551911.773157845</v>
       </c>
       <c r="BC6">
-        <v>52840.7273844877</v>
+        <v>55838.49869238748</v>
       </c>
       <c r="BD6">
-        <v>210959.9999999999</v>
+        <v>210909</v>
       </c>
       <c r="BE6">
         <v>1</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>22640.2804746509</v>
+        <v>33379.93291775298</v>
       </c>
       <c r="B7">
-        <v>110500.2419517569</v>
+        <v>81484.4371274692</v>
       </c>
       <c r="C7">
-        <v>69955.5900785202</v>
+        <v>67641.23450318126</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1630,76 +1630,76 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>10164.83091547438</v>
       </c>
       <c r="O7">
-        <v>5178.016076886662</v>
+        <v>5592.54978576423</v>
       </c>
       <c r="P7">
-        <v>5932.457218178302</v>
+        <v>6052.089092151575</v>
       </c>
       <c r="Q7">
-        <v>5195.536072617827</v>
+        <v>5155.905801880673</v>
       </c>
       <c r="R7">
-        <v>1531.499834636737</v>
+        <v>1308.4448804229</v>
       </c>
       <c r="S7">
-        <v>1140.633492402031</v>
+        <v>1131.648394139106</v>
       </c>
       <c r="T7">
-        <v>1557.053387402875</v>
+        <v>1437.515046891977</v>
       </c>
       <c r="U7">
-        <v>295.7100828444656</v>
+        <v>282.6033922616784</v>
       </c>
       <c r="V7">
-        <v>374.8506036644256</v>
+        <v>526.6208130450439</v>
       </c>
       <c r="W7">
-        <v>998.2917695800305</v>
+        <v>1190.765904742856</v>
       </c>
       <c r="X7">
-        <v>59.37029602411442</v>
+        <v>62.22645342805308</v>
       </c>
       <c r="Y7">
-        <v>374.7979477910204</v>
+        <v>456.884776059415</v>
       </c>
       <c r="Z7">
-        <v>2.063692622412302</v>
+        <v>230.7895675747294</v>
       </c>
       <c r="AA7">
-        <v>305.8849831306715</v>
+        <v>619.7828932541731</v>
       </c>
       <c r="AB7">
-        <v>975.4659108045454</v>
+        <v>433.682034748008</v>
       </c>
       <c r="AC7">
-        <v>843.2666565265236</v>
+        <v>1722.844564990764</v>
       </c>
       <c r="AD7">
-        <v>2870.038598263448</v>
+        <v>5074.56638783863</v>
       </c>
       <c r="AE7">
-        <v>8704.17474335017</v>
+        <v>8082.607831607627</v>
       </c>
       <c r="AF7">
-        <v>11599.5273050696</v>
+        <v>8905.332956717351</v>
       </c>
       <c r="AG7">
-        <v>12457.03469953944</v>
+        <v>16186.63099123482</v>
       </c>
       <c r="AH7">
-        <v>20144.7699393735</v>
+        <v>19458.28463896225</v>
       </c>
       <c r="AI7">
-        <v>21175.33095400487</v>
+        <v>20769.91526054084</v>
       </c>
       <c r="AJ7">
-        <v>22027.67625226072</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>9397.071909433391</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1732,31 +1732,31 @@
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>25414.27754821388</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>42226.95695496738</v>
       </c>
       <c r="AX7">
-        <v>25510.64089600489</v>
+        <v>36962.50578552891</v>
       </c>
       <c r="AY7">
-        <v>44444.94918251531</v>
+        <v>4983.062889490871</v>
       </c>
       <c r="AZ7">
-        <v>37428.29428597007</v>
+        <v>17.84766149109495</v>
       </c>
       <c r="BA7">
-        <v>5391.027328809199</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>-855.6587022699241</v>
+        <v>-246503.9125413091</v>
       </c>
       <c r="BC7">
-        <v>48670.37374003368</v>
+        <v>50042.95589251079</v>
       </c>
       <c r="BD7">
-        <v>194569.0000000002</v>
+        <v>192306</v>
       </c>
       <c r="BE7">
         <v>1</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>23608.7639943017</v>
+        <v>35117.83575802093</v>
       </c>
       <c r="B8">
-        <v>115279.1665573393</v>
+        <v>86800.24937621037</v>
       </c>
       <c r="C8">
-        <v>73352.35470028329</v>
+        <v>75611.36259933765</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1816,76 +1816,76 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>10281.14672886404</v>
       </c>
       <c r="O8">
-        <v>5328.978638305526</v>
+        <v>5468.909627334072</v>
       </c>
       <c r="P8">
-        <v>6277.368625277731</v>
+        <v>6611.397428928206</v>
       </c>
       <c r="Q8">
-        <v>5372.472174236696</v>
+        <v>5699.776356990712</v>
       </c>
       <c r="R8">
-        <v>1639.584836256528</v>
+        <v>1711.466823477187</v>
       </c>
       <c r="S8">
-        <v>1214.036999705493</v>
+        <v>1077.28351410434</v>
       </c>
       <c r="T8">
-        <v>1641.688551170071</v>
+        <v>1751.410906916775</v>
       </c>
       <c r="U8">
-        <v>283.0009814345526</v>
+        <v>290.8504592300101</v>
       </c>
       <c r="V8">
-        <v>376.3200036829834</v>
+        <v>440.1755768827686</v>
       </c>
       <c r="W8">
-        <v>1049.787657858389</v>
+        <v>1377.692154419357</v>
       </c>
       <c r="X8">
-        <v>60.10954609269705</v>
+        <v>38.34647181470894</v>
       </c>
       <c r="Y8">
-        <v>364.7324314785691</v>
+        <v>369.3797090587647</v>
       </c>
       <c r="Z8">
-        <v>0.6835488024595572</v>
+        <v>296.6254633555964</v>
       </c>
       <c r="AA8">
-        <v>342.0930348521649</v>
+        <v>714.0150579017319</v>
       </c>
       <c r="AB8">
-        <v>956.6434760123808</v>
+        <v>563.631270838919</v>
       </c>
       <c r="AC8">
-        <v>879.5433970707277</v>
+        <v>1626.853135334015</v>
       </c>
       <c r="AD8">
-        <v>3052.284148701797</v>
+        <v>5301.891931909103</v>
       </c>
       <c r="AE8">
-        <v>9076.971661758629</v>
+        <v>8695.382538952174</v>
       </c>
       <c r="AF8">
-        <v>12204.9250262216</v>
+        <v>9312.885573404168</v>
       </c>
       <c r="AG8">
-        <v>13019.32698587145</v>
+        <v>16793.56192872185</v>
       </c>
       <c r="AH8">
-        <v>21106.73634545288</v>
+        <v>20166.67727574459</v>
       </c>
       <c r="AI8">
-        <v>21928.67928101488</v>
+        <v>23328.72520004822</v>
       </c>
       <c r="AJ8">
-        <v>22920.40880339568</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>9791.554396987163</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1918,31 +1918,31 @@
         <v>0</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>27346.82873397432</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>48264.53386536333</v>
       </c>
       <c r="AX8">
-        <v>26591.26783032101</v>
+        <v>40903.84312875134</v>
       </c>
       <c r="AY8">
-        <v>46761.08686996229</v>
+        <v>5720.331379757378</v>
       </c>
       <c r="AZ8">
-        <v>40117.77675498399</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>5653.58038468003</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>15381.7108562776</v>
+        <v>-215773.7438001299</v>
       </c>
       <c r="BC8">
-        <v>50881.02697421198</v>
+        <v>52409.29262077261</v>
       </c>
       <c r="BD8">
-        <v>203273.0000000001</v>
+        <v>201537</v>
       </c>
       <c r="BE8">
         <v>1</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>9533.748289276897</v>
+        <v>14568.82645270014</v>
       </c>
       <c r="B9">
-        <v>46616.20329855444</v>
+        <v>35115.51420994963</v>
       </c>
       <c r="C9">
-        <v>29516.73751019584</v>
+        <v>32148.90491557448</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2002,76 +2002,76 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>4029.481283999829</v>
       </c>
       <c r="O9">
-        <v>2155.63660142452</v>
+        <v>2326.721974121803</v>
       </c>
       <c r="P9">
-        <v>2515.499712691556</v>
+        <v>2671.159866732337</v>
       </c>
       <c r="Q9">
-        <v>2190.717671634446</v>
+        <v>2352.150286697024</v>
       </c>
       <c r="R9">
-        <v>659.9656285157583</v>
+        <v>694.7937573651708</v>
       </c>
       <c r="S9">
-        <v>492.1421662579539</v>
+        <v>542.3825251802036</v>
       </c>
       <c r="T9">
-        <v>667.0515865081202</v>
+        <v>755.5322318768614</v>
       </c>
       <c r="U9">
-        <v>114.1030585258534</v>
+        <v>110.9102056382377</v>
       </c>
       <c r="V9">
-        <v>144.9635794414816</v>
+        <v>192.7778129980584</v>
       </c>
       <c r="W9">
-        <v>418.824975936305</v>
+        <v>668.0931602163224</v>
       </c>
       <c r="X9">
-        <v>22.11241265037513</v>
+        <v>28.88325628306437</v>
       </c>
       <c r="Y9">
-        <v>152.2591661387549</v>
+        <v>193.7237947891122</v>
       </c>
       <c r="Z9">
-        <v>0.471729551773503</v>
+        <v>90.99580797704758</v>
       </c>
       <c r="AA9">
-        <v>138.6832317863053</v>
+        <v>226.0395954254259</v>
       </c>
       <c r="AB9">
-        <v>395.9916384672969</v>
+        <v>204.7350249513749</v>
       </c>
       <c r="AC9">
-        <v>348.1701005524665</v>
+        <v>667.4757306989004</v>
       </c>
       <c r="AD9">
-        <v>1250.954926140333</v>
+        <v>2136.594998297674</v>
       </c>
       <c r="AE9">
-        <v>3675.983156631098</v>
+        <v>3696.303647686334</v>
       </c>
       <c r="AF9">
-        <v>4894.494244156068</v>
+        <v>3692.445945783554</v>
       </c>
       <c r="AG9">
-        <v>5262.522401971455</v>
+        <v>7156.255196660924</v>
       </c>
       <c r="AH9">
-        <v>8492.13535135659</v>
+        <v>8494.311037812984</v>
       </c>
       <c r="AI9">
-        <v>8922.620658723414</v>
+        <v>8750.357224655412</v>
       </c>
       <c r="AJ9">
-        <v>9302.615345258148</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>3932.032243511262</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2104,31 +2104,31 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>11211.93324200688</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>20936.97167356759</v>
       </c>
       <c r="AX9">
-        <v>10791.54667864742</v>
+        <v>16360.35729827787</v>
       </c>
       <c r="AY9">
-        <v>18725.19083154842</v>
+        <v>2366.761773924741</v>
       </c>
       <c r="AZ9">
-        <v>15960.17662154484</v>
+        <v>2.216296802116757</v>
       </c>
       <c r="BA9">
-        <v>2304.086026558425</v>
+        <v>0</v>
       </c>
       <c r="BB9">
-        <v>4904.379589831839</v>
+        <v>-124355.672642345</v>
       </c>
       <c r="BC9">
-        <v>20552.67421974745</v>
+        <v>21396.27281106689</v>
       </c>
       <c r="BD9">
-        <v>82195.99999999994</v>
+        <v>81836</v>
       </c>
       <c r="BE9">
         <v>1</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>12526.40511060692</v>
+        <v>19321.47139457977</v>
       </c>
       <c r="B10">
-        <v>61659.91575242249</v>
+        <v>45620.84527123271</v>
       </c>
       <c r="C10">
-        <v>38837.06114957488</v>
+        <v>38985.75168532709</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2188,76 +2188,76 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5626.009698214237</v>
       </c>
       <c r="O10">
-        <v>2885.548574115539</v>
+        <v>3000.359856239057</v>
       </c>
       <c r="P10">
-        <v>3258.904140712158</v>
+        <v>3928.700717874091</v>
       </c>
       <c r="Q10">
-        <v>2885.195314911856</v>
+        <v>2963.364451666193</v>
       </c>
       <c r="R10">
-        <v>862.199673821267</v>
+        <v>776.1211198549977</v>
       </c>
       <c r="S10">
-        <v>609.7036203177423</v>
+        <v>685.5012493671244</v>
       </c>
       <c r="T10">
-        <v>871.0608331804697</v>
+        <v>838.0787997354792</v>
       </c>
       <c r="U10">
-        <v>160.3999729187298</v>
+        <v>138.4305855160941</v>
       </c>
       <c r="V10">
-        <v>205.0870882288007</v>
+        <v>322.9991147057511</v>
       </c>
       <c r="W10">
-        <v>556.6472165934072</v>
+        <v>759.2326426913628</v>
       </c>
       <c r="X10">
-        <v>23.45880692484986</v>
+        <v>24.63397298597959</v>
       </c>
       <c r="Y10">
-        <v>207.5103235734111</v>
+        <v>258.0391857294013</v>
       </c>
       <c r="Z10">
-        <v>0.68954530869131</v>
+        <v>129.3686993729438</v>
       </c>
       <c r="AA10">
-        <v>174.7373589203237</v>
+        <v>285.0021219671774</v>
       </c>
       <c r="AB10">
-        <v>518.909757429769</v>
+        <v>295.9791365944932</v>
       </c>
       <c r="AC10">
-        <v>483.4760053727565</v>
+        <v>895.9893057661967</v>
       </c>
       <c r="AD10">
-        <v>1608.031551177903</v>
+        <v>2871.272925719395</v>
       </c>
       <c r="AE10">
-        <v>4853.439396495562</v>
+        <v>4678.335776832726</v>
       </c>
       <c r="AF10">
-        <v>6494.11035101279</v>
+        <v>4965.018930468467</v>
       </c>
       <c r="AG10">
-        <v>6994.643122552663</v>
+        <v>8968.376859992008</v>
       </c>
       <c r="AH10">
-        <v>11236.66833735349</v>
+        <v>10511.78051582144</v>
       </c>
       <c r="AI10">
-        <v>11738.32973006121</v>
+        <v>12019.72099869787</v>
       </c>
       <c r="AJ10">
-        <v>12355.25486167196</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>5202.315280374062</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2290,31 +2290,31 @@
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>20347.2075159953</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>18638.54416933179</v>
       </c>
       <c r="AX10">
-        <v>20334.09467507523</v>
+        <v>20637.7289270133</v>
       </c>
       <c r="AY10">
-        <v>18502.96647449965</v>
+        <v>2736.517402997406</v>
       </c>
       <c r="AZ10">
-        <v>21216.14966788101</v>
+        <v>0</v>
       </c>
       <c r="BA10">
-        <v>3007.514222791495</v>
+        <v>0</v>
       </c>
       <c r="BB10">
-        <v>1787.711561177438</v>
+        <v>-201194.2963060345</v>
       </c>
       <c r="BC10">
-        <v>26970.78611327323</v>
+        <v>27990.52948300084</v>
       </c>
       <c r="BD10">
-        <v>106960</v>
+        <v>106195</v>
       </c>
       <c r="BE10">
         <v>1</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1808.508506564368</v>
+        <v>2747.808933138781</v>
       </c>
       <c r="B11">
-        <v>8847.157266751399</v>
+        <v>6712.413813657466</v>
       </c>
       <c r="C11">
-        <v>5631.290334649339</v>
+        <v>5732.756543410557</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2374,76 +2374,76 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>768.0860328444908</v>
       </c>
       <c r="O11">
-        <v>413.6840914389182</v>
+        <v>431.5858827223813</v>
       </c>
       <c r="P11">
-        <v>475.7784288979987</v>
+        <v>530.4201529921554</v>
       </c>
       <c r="Q11">
-        <v>415.3962734398793</v>
+        <v>425.547233379358</v>
       </c>
       <c r="R11">
-        <v>123.7607859618781</v>
+        <v>135.3021791640104</v>
       </c>
       <c r="S11">
-        <v>91.24221852709044</v>
+        <v>99.98200975843935</v>
       </c>
       <c r="T11">
-        <v>125.2334045764413</v>
+        <v>147.9378443142713</v>
       </c>
       <c r="U11">
-        <v>23.11251609060942</v>
+        <v>21.21272851557094</v>
       </c>
       <c r="V11">
-        <v>28.82877335908647</v>
+        <v>36.14387263694496</v>
       </c>
       <c r="W11">
-        <v>77.63379650382144</v>
+        <v>102.2891710923773</v>
       </c>
       <c r="X11">
-        <v>4.28122635669131</v>
+        <v>4.588403460536637</v>
       </c>
       <c r="Y11">
-        <v>29.41300600338552</v>
+        <v>44.71342225824525</v>
       </c>
       <c r="Z11">
-        <v>0.1439854085680014</v>
+        <v>18.12430430039036</v>
       </c>
       <c r="AA11">
-        <v>24.33638857020335</v>
+        <v>51.07593039136737</v>
       </c>
       <c r="AB11">
-        <v>75.97772100934699</v>
+        <v>39.72779265407514</v>
       </c>
       <c r="AC11">
-        <v>69.39299997903616</v>
+        <v>153.4391718508471</v>
       </c>
       <c r="AD11">
-        <v>235.9880906799768</v>
+        <v>398.305845583479</v>
       </c>
       <c r="AE11">
-        <v>694.1752239499783</v>
+        <v>661.8631265464003</v>
       </c>
       <c r="AF11">
-        <v>930.7623747866442</v>
+        <v>720.1016643401564</v>
       </c>
       <c r="AG11">
-        <v>1004.07334147216</v>
+        <v>1356.909300115219</v>
       </c>
       <c r="AH11">
-        <v>1614.226909569367</v>
+        <v>1547.541048129382</v>
       </c>
       <c r="AI11">
-        <v>1688.51282521639</v>
+        <v>1765.32562974615</v>
       </c>
       <c r="AJ11">
-        <v>1766.155302531151</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>743.5560889871459</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2476,31 +2476,31 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>2961.489394126693</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>2771.267149283864</v>
       </c>
       <c r="AX11">
-        <v>2946.533584086079</v>
+        <v>3028.553849087804</v>
       </c>
       <c r="AY11">
-        <v>2684.756750563259</v>
+        <v>409.7185219744489</v>
       </c>
       <c r="AZ11">
-        <v>3069.935407136671</v>
+        <v>0</v>
       </c>
       <c r="BA11">
-        <v>446.1907827677013</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>1262.350912811916</v>
+        <v>-24020.92573192546</v>
       </c>
       <c r="BC11">
-        <v>3903.81276875008</v>
+        <v>4032.931672167672</v>
       </c>
       <c r="BD11">
-        <v>15497</v>
+        <v>15390</v>
       </c>
       <c r="BE11">
         <v>1</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>48.82912826043599</v>
+        <v>75.3073598741689</v>
       </c>
       <c r="B12">
-        <v>241.9148738956686</v>
+        <v>182.6280029572655</v>
       </c>
       <c r="C12">
-        <v>153.8215929563177</v>
+        <v>156.9738919473977</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2560,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>21.36080009581186</v>
       </c>
       <c r="O12">
-        <v>11.10414577648691</v>
+        <v>11.57707186060246</v>
       </c>
       <c r="P12">
-        <v>13.08249608616569</v>
+        <v>14.16560279318998</v>
       </c>
       <c r="Q12">
-        <v>11.08935209082028</v>
+        <v>12.6622858140009</v>
       </c>
       <c r="R12">
-        <v>3.252728275528709</v>
+        <v>3.641495458403168</v>
       </c>
       <c r="S12">
-        <v>2.547278002560858</v>
+        <v>2.297054143738561</v>
       </c>
       <c r="T12">
-        <v>3.368241667901731</v>
+        <v>3.573535251284992</v>
       </c>
       <c r="U12">
-        <v>0.5607895899471862</v>
+        <v>0.7537109197128573</v>
       </c>
       <c r="V12">
-        <v>0.7999158683068293</v>
+        <v>1.249523295434518</v>
       </c>
       <c r="W12">
-        <v>2.152470251189353</v>
+        <v>2.693954003298157</v>
       </c>
       <c r="X12">
-        <v>0.1097646224261514</v>
+        <v>0.2322877238539645</v>
       </c>
       <c r="Y12">
-        <v>0.7542103195519105</v>
+        <v>1.093125837314385</v>
       </c>
       <c r="Z12">
-        <v>0.007735709550385096</v>
+        <v>0.4364970609985008</v>
       </c>
       <c r="AA12">
-        <v>0.6982189427093453</v>
+        <v>1.31313554515159</v>
       </c>
       <c r="AB12">
-        <v>2.067591398197872</v>
+        <v>1.227448009255594</v>
       </c>
       <c r="AC12">
-        <v>1.889139957690959</v>
+        <v>3.340971688124699</v>
       </c>
       <c r="AD12">
-        <v>6.561734542907386</v>
+        <v>11.24957313166454</v>
       </c>
       <c r="AE12">
-        <v>18.95313762986394</v>
+        <v>18.33418246361959</v>
       </c>
       <c r="AF12">
-        <v>25.56563891778959</v>
+        <v>19.61148847189388</v>
       </c>
       <c r="AG12">
-        <v>27.30985925310405</v>
+        <v>35.41428955372322</v>
       </c>
       <c r="AH12">
-        <v>44.28305982767945</v>
+        <v>44.24109214282778</v>
       </c>
       <c r="AI12">
-        <v>46.08769422925849</v>
+        <v>47.45932489000607</v>
       </c>
       <c r="AJ12">
-        <v>48.18410677699094</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>20.31469241947653</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2662,31 +2662,31 @@
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>81.78599314608412</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>75.18789880131361</v>
       </c>
       <c r="AX12">
-        <v>80.46088845093708</v>
+        <v>85.11693742639399</v>
       </c>
       <c r="AY12">
-        <v>73.36070450538067</v>
+        <v>10.97578684083515</v>
       </c>
       <c r="AZ12">
-        <v>81.57410453193246</v>
+        <v>0.006912677523089157</v>
       </c>
       <c r="BA12">
-        <v>11.55381864258252</v>
+        <v>0</v>
       </c>
       <c r="BB12">
-        <v>-5.395816709547458</v>
+        <v>-528.6378460510819</v>
       </c>
       <c r="BC12">
-        <v>105.8457574279047</v>
+        <v>108.9073885018622</v>
       </c>
       <c r="BD12">
-        <v>420.0000000000002</v>
+        <v>415</v>
       </c>
       <c r="BE12">
         <v>1</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>7264.491410681854</v>
+        <v>10813.25657267881</v>
       </c>
       <c r="B13">
-        <v>35579.91548039772</v>
+        <v>26970.53932404792</v>
       </c>
       <c r="C13">
-        <v>22786.06893824288</v>
+        <v>23407.76282475735</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2746,76 +2746,76 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>3285.504815356726</v>
       </c>
       <c r="O13">
-        <v>1661.553181445175</v>
+        <v>1648.439486347965</v>
       </c>
       <c r="P13">
-        <v>1909.939570773122</v>
+        <v>2203.126418972742</v>
       </c>
       <c r="Q13">
-        <v>1656.355285796261</v>
+        <v>1636.22068438091</v>
       </c>
       <c r="R13">
-        <v>498.5938153277459</v>
+        <v>463.6149064090937</v>
       </c>
       <c r="S13">
-        <v>369.7948147640437</v>
+        <v>322.3983607434973</v>
       </c>
       <c r="T13">
-        <v>502.3644262279949</v>
+        <v>413.9819712387268</v>
       </c>
       <c r="U13">
-        <v>87.79933368355988</v>
+        <v>102.5386117724876</v>
       </c>
       <c r="V13">
-        <v>121.3800941514059</v>
+        <v>145.5782161432414</v>
       </c>
       <c r="W13">
-        <v>319.271221400008</v>
+        <v>417.7359148601898</v>
       </c>
       <c r="X13">
-        <v>16.52173542589261</v>
+        <v>10.315989086659</v>
       </c>
       <c r="Y13">
-        <v>120.4246604388395</v>
+        <v>163.8011973665762</v>
       </c>
       <c r="Z13">
-        <v>0.4932712478056284</v>
+        <v>80.43930106869021</v>
       </c>
       <c r="AA13">
-        <v>100.9670343196195</v>
+        <v>254.4852621709173</v>
       </c>
       <c r="AB13">
-        <v>295.9435200123621</v>
+        <v>185.8851251656012</v>
       </c>
       <c r="AC13">
-        <v>275.402322693291</v>
+        <v>546.3126695004912</v>
       </c>
       <c r="AD13">
-        <v>928.1687919851502</v>
+        <v>1651.227306151466</v>
       </c>
       <c r="AE13">
-        <v>2774.842239686675</v>
+        <v>2668.496144261747</v>
       </c>
       <c r="AF13">
-        <v>3772.314269015645</v>
+        <v>2899.424853390178</v>
       </c>
       <c r="AG13">
-        <v>4071.003688390975</v>
+        <v>5485.872732038406</v>
       </c>
       <c r="AH13">
-        <v>6494.776415901666</v>
+        <v>6088.813846441765</v>
       </c>
       <c r="AI13">
-        <v>6747.28428537306</v>
+        <v>7109.582083858661</v>
       </c>
       <c r="AJ13">
-        <v>7109.527923832808</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>3009.684989186472</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2848,31 +2848,31 @@
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>11946.55200938614</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>11461.21081537121</v>
       </c>
       <c r="AX13">
-        <v>11874.08754329102</v>
+        <v>12785.52387748452</v>
       </c>
       <c r="AY13">
-        <v>10911.98139495186</v>
+        <v>1857.315745185553</v>
       </c>
       <c r="AZ13">
-        <v>12045.7460956179</v>
+        <v>0</v>
       </c>
       <c r="BA13">
-        <v>1701.263241045305</v>
+        <v>0</v>
       </c>
       <c r="BB13">
-        <v>-499.0636961569729</v>
+        <v>-80024.73478535215</v>
       </c>
       <c r="BC13">
-        <v>15652.03235709429</v>
+        <v>16110.51814344505</v>
       </c>
       <c r="BD13">
-        <v>62140.99999999999</v>
+        <v>61542</v>
       </c>
       <c r="BE13">
         <v>1</v>

--- a/pds_new_all_RI_check2.xlsx
+++ b/pds_new_all_RI_check2.xlsx
@@ -475,142 +475,142 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>keep_length_29</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_8</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_9</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_10</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_11</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_12</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_13</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_14</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_15</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_16</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_17</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_18</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_19</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_20</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_21</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_22</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_23</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_24</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_25</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_26</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_27</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_29</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_bsb</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_bsb</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_scup</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_scup</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>keep_length_28</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_29</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_8</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_9</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_10</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_11</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_12</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_13</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_14</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_15</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_16</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_17</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_18</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_19</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_20</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_21</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_22</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_23</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_24</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_25</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_26</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_27</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>release_length_28</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_29</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_bsb</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_bsb</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_scup</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_scup</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -661,13 +661,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>757.4720089516565</v>
+        <v>546.7179338595014</v>
       </c>
       <c r="B2">
-        <v>1853.082712849594</v>
+        <v>1283.076672034919</v>
       </c>
       <c r="C2">
-        <v>1576.883732873288</v>
+        <v>1382.557202869807</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -700,70 +700,70 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>223.7653695671907</v>
+        <v>158.9742182760126</v>
       </c>
       <c r="O2">
-        <v>128.4029608423829</v>
+        <v>83.65035869972513</v>
       </c>
       <c r="P2">
-        <v>143.6675805868598</v>
+        <v>110.2263434260339</v>
       </c>
       <c r="Q2">
-        <v>121.1432529416548</v>
+        <v>82.58934502450867</v>
       </c>
       <c r="R2">
-        <v>32.83325511637745</v>
+        <v>26.83694619466445</v>
       </c>
       <c r="S2">
-        <v>23.11244567493134</v>
+        <v>16.19389708152627</v>
       </c>
       <c r="T2">
-        <v>32.0288296897987</v>
+        <v>26.38334926946945</v>
       </c>
       <c r="U2">
-        <v>7.915758110505402</v>
+        <v>3.51612101009178</v>
       </c>
       <c r="V2">
-        <v>7.878183063545627</v>
+        <v>7.001307612155595</v>
       </c>
       <c r="W2">
-        <v>24.50148499367071</v>
+        <v>19.89617507789909</v>
       </c>
       <c r="X2">
-        <v>2.061111796978723</v>
+        <v>9.614791985138604</v>
       </c>
       <c r="Y2">
-        <v>10.050737647368</v>
+        <v>4.199428520045811</v>
       </c>
       <c r="Z2">
-        <v>3.828692171473854</v>
+        <v>13.66583834258322</v>
       </c>
       <c r="AA2">
-        <v>11.85827374374346</v>
+        <v>11.00321746371311</v>
       </c>
       <c r="AB2">
-        <v>11.00102244203905</v>
+        <v>31.250904174115</v>
       </c>
       <c r="AC2">
-        <v>39.34333201806396</v>
+        <v>77.10186182383137</v>
       </c>
       <c r="AD2">
-        <v>117.4434857880242</v>
+        <v>125.5833914200619</v>
       </c>
       <c r="AE2">
-        <v>171.1127663904879</v>
+        <v>135.9521272747723</v>
       </c>
       <c r="AF2">
-        <v>195.8373697257007</v>
+        <v>252.6487060277657</v>
       </c>
       <c r="AG2">
-        <v>361.764780056544</v>
+        <v>298.7678493088329</v>
       </c>
       <c r="AH2">
-        <v>454.2665766033841</v>
+        <v>332.903347679198</v>
       </c>
       <c r="AI2">
-        <v>486.6264139101323</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1382.557202869807</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>817.7568804499864</v>
       </c>
       <c r="AW2">
-        <v>1576.883732873288</v>
+        <v>113.6556514141275</v>
       </c>
       <c r="AX2">
-        <v>878.8144779688657</v>
+        <v>1.76379104081728</v>
       </c>
       <c r="AY2">
-        <v>131.4183537902856</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.1110389203923416</v>
+        <v>0.0712891614586189</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>-6303.551048248154</v>
+        <v>-330.3600419048403</v>
       </c>
       <c r="BC2">
-        <v>1121.314079349669</v>
+        <v>1091.052928346289</v>
       </c>
       <c r="BD2">
-        <v>4518</v>
+        <v>4484</v>
       </c>
       <c r="BE2">
         <v>1</v>
@@ -847,13 +847,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>8497.207013606139</v>
+        <v>5926.418191927171</v>
       </c>
       <c r="B3">
-        <v>21098.93214878535</v>
+        <v>13991.59223278796</v>
       </c>
       <c r="C3">
-        <v>18431.90179216282</v>
+        <v>15792.90663056536</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -886,70 +886,70 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2440.047171997714</v>
+        <v>1666.076618073247</v>
       </c>
       <c r="O3">
-        <v>1407.187449074929</v>
+        <v>1004.790187981934</v>
       </c>
       <c r="P3">
-        <v>1630.877121339265</v>
+        <v>1230.728473634115</v>
       </c>
       <c r="Q3">
-        <v>1389.335068501255</v>
+        <v>849.0232655211156</v>
       </c>
       <c r="R3">
-        <v>371.7925052590637</v>
+        <v>219.0497655587391</v>
       </c>
       <c r="S3">
-        <v>297.9863138228632</v>
+        <v>199.7404263473019</v>
       </c>
       <c r="T3">
-        <v>354.9351926187842</v>
+        <v>296.8672226194586</v>
       </c>
       <c r="U3">
-        <v>83.34336146564775</v>
+        <v>35.86693640517729</v>
       </c>
       <c r="V3">
-        <v>122.4392913307487</v>
+        <v>73.39915012228292</v>
       </c>
       <c r="W3">
-        <v>298.5375542451487</v>
+        <v>248.3115986856299</v>
       </c>
       <c r="X3">
-        <v>18.44384943471175</v>
+        <v>84.57008673445648</v>
       </c>
       <c r="Y3">
-        <v>82.28213451600705</v>
+        <v>43.78008049848201</v>
       </c>
       <c r="Z3">
-        <v>44.05705704176476</v>
+        <v>136.2619501845135</v>
       </c>
       <c r="AA3">
-        <v>167.821306133854</v>
+        <v>119.4130344435192</v>
       </c>
       <c r="AB3">
-        <v>117.6756218753313</v>
+        <v>340.327389336895</v>
       </c>
       <c r="AC3">
-        <v>439.3037752965807</v>
+        <v>864.7987525537963</v>
       </c>
       <c r="AD3">
-        <v>1303.579697733282</v>
+        <v>1399.172637853756</v>
       </c>
       <c r="AE3">
-        <v>2144.061402101901</v>
+        <v>1514.560350958789</v>
       </c>
       <c r="AF3">
-        <v>2293.868610893651</v>
+        <v>2767.192749683836</v>
       </c>
       <c r="AG3">
-        <v>4017.898234015428</v>
+        <v>3129.643587359101</v>
       </c>
       <c r="AH3">
-        <v>4936.6154526477</v>
+        <v>3676.441699915274</v>
       </c>
       <c r="AI3">
-        <v>5634.050991045858</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>15792.90663056536</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>9403.491493377152</v>
       </c>
       <c r="AW3">
-        <v>18431.90179216282</v>
+        <v>1365.876807742302</v>
       </c>
       <c r="AX3">
-        <v>8776.351164306774</v>
+        <v>15.57436954102869</v>
       </c>
       <c r="AY3">
-        <v>1188.476608612298</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>2.420090702684288</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>-61530.06952266529</v>
+        <v>-13248.03843554325</v>
       </c>
       <c r="BC3">
-        <v>12160.91504867625</v>
+        <v>11951.96040327074</v>
       </c>
       <c r="BD3">
-        <v>48720</v>
+        <v>49041</v>
       </c>
       <c r="BE3">
         <v>1</v>
@@ -1033,13 +1033,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>54059.24607057862</v>
+        <v>38513.47690788309</v>
       </c>
       <c r="B4">
-        <v>132852.1000239776</v>
+        <v>92467.37509852271</v>
       </c>
       <c r="C4">
-        <v>112036.6173705909</v>
+        <v>110441.983193096</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1072,70 +1072,70 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15851.13910330867</v>
+        <v>10805.71149398516</v>
       </c>
       <c r="O4">
-        <v>8832.007314606697</v>
+        <v>6493.441970029198</v>
       </c>
       <c r="P4">
-        <v>10164.7107436402</v>
+        <v>7613.27281074682</v>
       </c>
       <c r="Q4">
-        <v>7886.605272292774</v>
+        <v>6027.065090681798</v>
       </c>
       <c r="R4">
-        <v>2160.949221582911</v>
+        <v>1411.116410017388</v>
       </c>
       <c r="S4">
-        <v>1875.529982211809</v>
+        <v>1484.297074023183</v>
       </c>
       <c r="T4">
-        <v>2588.67865555794</v>
+        <v>1597.738287861613</v>
       </c>
       <c r="U4">
-        <v>647.1714240976936</v>
+        <v>292.073784703345</v>
       </c>
       <c r="V4">
-        <v>632.3416493351419</v>
+        <v>480.4031445514266</v>
       </c>
       <c r="W4">
-        <v>2502.059898655331</v>
+        <v>1741.963068432264</v>
       </c>
       <c r="X4">
-        <v>109.2481953904374</v>
+        <v>486.45932036555</v>
       </c>
       <c r="Y4">
-        <v>808.8046098990105</v>
+        <v>427.9088016232686</v>
       </c>
       <c r="Z4">
-        <v>398.813228511494</v>
+        <v>917.056843950085</v>
       </c>
       <c r="AA4">
-        <v>1049.012017741057</v>
+        <v>748.3234772694959</v>
       </c>
       <c r="AB4">
-        <v>764.8418388009061</v>
+        <v>1820.673132834</v>
       </c>
       <c r="AC4">
-        <v>2606.49359951394</v>
+        <v>5295.721513595493</v>
       </c>
       <c r="AD4">
-        <v>7649.742329033336</v>
+        <v>9252.121807299647</v>
       </c>
       <c r="AE4">
-        <v>13051.04675195971</v>
+        <v>9609.545956206406</v>
       </c>
       <c r="AF4">
-        <v>13955.58667346662</v>
+        <v>18274.05219831746</v>
       </c>
       <c r="AG4">
-        <v>26963.2666131547</v>
+        <v>21741.80365508994</v>
       </c>
       <c r="AH4">
-        <v>31520.80060119481</v>
+        <v>24380.16771233691</v>
       </c>
       <c r="AI4">
-        <v>34892.496370601</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1171,34 +1171,34 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>110441.983193096</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>63730.64179868579</v>
       </c>
       <c r="AW4">
-        <v>112036.6173705909</v>
+        <v>9531.22732201787</v>
       </c>
       <c r="AX4">
-        <v>62817.9101150565</v>
+        <v>53.90312943410736</v>
       </c>
       <c r="AY4">
-        <v>10119.44922131288</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>26.03132305123279</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>-432724.68163037</v>
+        <v>78959.85670036575</v>
       </c>
       <c r="BC4">
-        <v>81652.48401983765</v>
+        <v>78824.55588838391</v>
       </c>
       <c r="BD4">
-        <v>328054</v>
+        <v>325313</v>
       </c>
       <c r="BE4">
         <v>1</v>
@@ -1219,13 +1219,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>115153.6288547573</v>
+        <v>79996.43374761789</v>
       </c>
       <c r="B5">
-        <v>284538.9279781208</v>
+        <v>182459.2402733286</v>
       </c>
       <c r="C5">
-        <v>246444.6566129904</v>
+        <v>226549.5244117504</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1258,70 +1258,70 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>33735.55582730881</v>
+        <v>23511.52172761661</v>
       </c>
       <c r="O5">
-        <v>19148.84763085553</v>
+        <v>12944.01134757742</v>
       </c>
       <c r="P5">
-        <v>21766.81060586092</v>
+        <v>15508.99668363588</v>
       </c>
       <c r="Q5">
-        <v>18033.31532367598</v>
+        <v>11691.96966181246</v>
       </c>
       <c r="R5">
-        <v>4502.894250169628</v>
+        <v>3227.214131396184</v>
       </c>
       <c r="S5">
-        <v>3884.499512752434</v>
+        <v>2440.301924004787</v>
       </c>
       <c r="T5">
-        <v>5564.226019200837</v>
+        <v>3737.247316055345</v>
       </c>
       <c r="U5">
-        <v>1000.072107270132</v>
+        <v>844.319047382814</v>
       </c>
       <c r="V5">
-        <v>1448.482696432545</v>
+        <v>1058.795325830642</v>
       </c>
       <c r="W5">
-        <v>4125.799890386959</v>
+        <v>3633.278368345502</v>
       </c>
       <c r="X5">
-        <v>338.1368843210996</v>
+        <v>1314.814324574108</v>
       </c>
       <c r="Y5">
-        <v>1604.988106522382</v>
+        <v>595.5582187076449</v>
       </c>
       <c r="Z5">
-        <v>735.3864004776526</v>
+        <v>1805.991126347757</v>
       </c>
       <c r="AA5">
-        <v>2146.859309782815</v>
+        <v>1475.761966347684</v>
       </c>
       <c r="AB5">
-        <v>1515.111481263406</v>
+        <v>3663.06158460402</v>
       </c>
       <c r="AC5">
-        <v>5826.096225485549</v>
+        <v>10644.55454033516</v>
       </c>
       <c r="AD5">
-        <v>16500.9109055753</v>
+        <v>18243.16330133561</v>
       </c>
       <c r="AE5">
-        <v>27601.50920701361</v>
+        <v>19741.00063614385</v>
       </c>
       <c r="AF5">
-        <v>31009.85045382344</v>
+        <v>37299.89940503948</v>
       </c>
       <c r="AG5">
-        <v>57157.67492587662</v>
+        <v>42179.0501752963</v>
       </c>
       <c r="AH5">
-        <v>65588.10817110058</v>
+        <v>46811.19931917116</v>
       </c>
       <c r="AI5">
-        <v>76457.42089772184</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1354,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>81813.63325421093</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>144735.8911575394</v>
       </c>
       <c r="AV5">
-        <v>89456.20689523353</v>
+        <v>119892.0377980573</v>
       </c>
       <c r="AW5">
-        <v>156988.4497177569</v>
+        <v>18090.62541613905</v>
       </c>
       <c r="AX5">
-        <v>141004.2914970008</v>
+        <v>83.96388938614281</v>
       </c>
       <c r="AY5">
-        <v>21646.1795825109</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>-896210.6890312027</v>
+        <v>160154.1965131646</v>
       </c>
       <c r="BC5">
-        <v>167076.8486131885</v>
+        <v>160933.0356978443</v>
       </c>
       <c r="BD5">
-        <v>638950</v>
+        <v>630874</v>
       </c>
       <c r="BE5">
         <v>1</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>37571.8491017199</v>
+        <v>27299.038360846</v>
       </c>
       <c r="B6">
-        <v>91151.94402012807</v>
+        <v>61472.04184667987</v>
       </c>
       <c r="C6">
-        <v>80957.04966299053</v>
+        <v>73505.53934645839</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1444,70 +1444,70 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10820.61531130825</v>
+        <v>8130.882807186929</v>
       </c>
       <c r="O6">
-        <v>5707.392733048726</v>
+        <v>4461.354003803936</v>
       </c>
       <c r="P6">
-        <v>7136.806512099105</v>
+        <v>5261.207145230577</v>
       </c>
       <c r="Q6">
-        <v>5855.047269628028</v>
+        <v>3929.483197969577</v>
       </c>
       <c r="R6">
-        <v>1740.312310319811</v>
+        <v>1133.926375339248</v>
       </c>
       <c r="S6">
-        <v>1296.239583289721</v>
+        <v>1052.138251325682</v>
       </c>
       <c r="T6">
-        <v>1947.298271578463</v>
+        <v>1301.590040313824</v>
       </c>
       <c r="U6">
-        <v>442.242472073683</v>
+        <v>142.6026381798931</v>
       </c>
       <c r="V6">
-        <v>519.387736617549</v>
+        <v>361.1628136862147</v>
       </c>
       <c r="W6">
-        <v>1458.996076881331</v>
+        <v>1055.584890639789</v>
       </c>
       <c r="X6">
-        <v>73.53714713219449</v>
+        <v>433.2648634068138</v>
       </c>
       <c r="Y6">
-        <v>573.1482771525235</v>
+        <v>206.4405572370006</v>
       </c>
       <c r="Z6">
-        <v>313.3414493875201</v>
+        <v>646.9937947910155</v>
       </c>
       <c r="AA6">
-        <v>666.9414007914377</v>
+        <v>517.6934361820195</v>
       </c>
       <c r="AB6">
-        <v>566.5777066294844</v>
+        <v>1388.172531784772</v>
       </c>
       <c r="AC6">
-        <v>1802.490034428295</v>
+        <v>3785.556713032659</v>
       </c>
       <c r="AD6">
-        <v>5376.051791238031</v>
+        <v>6000.468780858911</v>
       </c>
       <c r="AE6">
-        <v>9209.264508029803</v>
+        <v>6505.938472790347</v>
       </c>
       <c r="AF6">
-        <v>9787.598447461854</v>
+        <v>11825.21442428865</v>
       </c>
       <c r="AG6">
-        <v>17734.89754863739</v>
+        <v>14599.90262748662</v>
       </c>
       <c r="AH6">
-        <v>21860.61918022515</v>
+        <v>15995.66050822788</v>
       </c>
       <c r="AI6">
-        <v>23834.16195329911</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1540,37 +1540,37 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>26808.84259155697</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>46696.69675490142</v>
       </c>
       <c r="AV6">
-        <v>29477.35228320571</v>
+        <v>40527.11624217907</v>
       </c>
       <c r="AW6">
-        <v>51479.69737978481</v>
+        <v>4884.455826738761</v>
       </c>
       <c r="AX6">
-        <v>41776.43867356011</v>
+        <v>35.84133376352222</v>
       </c>
       <c r="AY6">
-        <v>6226.963091560037</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.8254005905222167</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>-551911.773157845</v>
+        <v>26599.03472956555</v>
       </c>
       <c r="BC6">
-        <v>55838.49869238748</v>
+        <v>52925.02508180898</v>
       </c>
       <c r="BD6">
-        <v>210909</v>
+        <v>207128</v>
       </c>
       <c r="BE6">
         <v>1</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>33379.93291775298</v>
+        <v>23948.58690175366</v>
       </c>
       <c r="B7">
-        <v>81484.4371274692</v>
+        <v>56036.53950866205</v>
       </c>
       <c r="C7">
-        <v>67641.23450318126</v>
+        <v>66688.61845536267</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1630,70 +1630,70 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10164.83091547438</v>
+        <v>6729.982629001087</v>
       </c>
       <c r="O7">
-        <v>5592.54978576423</v>
+        <v>3362.938618436454</v>
       </c>
       <c r="P7">
-        <v>6052.089092151575</v>
+        <v>4635.22179181749</v>
       </c>
       <c r="Q7">
-        <v>5155.905801880673</v>
+        <v>3910.207270630786</v>
       </c>
       <c r="R7">
-        <v>1308.4448804229</v>
+        <v>1233.173473959462</v>
       </c>
       <c r="S7">
-        <v>1131.648394139106</v>
+        <v>848.0875765437618</v>
       </c>
       <c r="T7">
-        <v>1437.515046891977</v>
+        <v>1126.948468410364</v>
       </c>
       <c r="U7">
-        <v>282.6033922616784</v>
+        <v>201.5947812735801</v>
       </c>
       <c r="V7">
-        <v>526.6208130450439</v>
+        <v>409.0209216679601</v>
       </c>
       <c r="W7">
-        <v>1190.765904742856</v>
+        <v>997.8276192414874</v>
       </c>
       <c r="X7">
-        <v>62.22645342805308</v>
+        <v>427.7543811494508</v>
       </c>
       <c r="Y7">
-        <v>456.884776059415</v>
+        <v>260.1141316351507</v>
       </c>
       <c r="Z7">
-        <v>230.7895675747294</v>
+        <v>587.2810470063198</v>
       </c>
       <c r="AA7">
-        <v>619.7828932541731</v>
+        <v>328.9112444539352</v>
       </c>
       <c r="AB7">
-        <v>433.682034748008</v>
+        <v>1395.110271354199</v>
       </c>
       <c r="AC7">
-        <v>1722.844564990764</v>
+        <v>3371.70400432813</v>
       </c>
       <c r="AD7">
-        <v>5074.56638783863</v>
+        <v>5455.441446152707</v>
       </c>
       <c r="AE7">
-        <v>8082.607831607627</v>
+        <v>6519.640141991619</v>
       </c>
       <c r="AF7">
-        <v>8905.332956717351</v>
+        <v>10951.63338258796</v>
       </c>
       <c r="AG7">
-        <v>16186.63099123482</v>
+        <v>13004.65026446559</v>
       </c>
       <c r="AH7">
-        <v>19458.28463896225</v>
+        <v>14162.05357468644</v>
       </c>
       <c r="AI7">
-        <v>20769.91526054084</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1726,37 +1726,37 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>24183.92464531804</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>42504.69381004464</v>
       </c>
       <c r="AV7">
-        <v>25414.27754821388</v>
+        <v>37939.72800337998</v>
       </c>
       <c r="AW7">
-        <v>42226.95695496738</v>
+        <v>5843.450495046688</v>
       </c>
       <c r="AX7">
-        <v>36962.50578552891</v>
+        <v>60.01881026424596</v>
       </c>
       <c r="AY7">
-        <v>4983.062889490871</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>17.84766149109495</v>
+        <v>5.810559357528494</v>
       </c>
       <c r="BA7">
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>-246503.9125413091</v>
+        <v>-1406.292125656215</v>
       </c>
       <c r="BC7">
-        <v>50042.95589251079</v>
+        <v>48674.55288589789</v>
       </c>
       <c r="BD7">
-        <v>192306</v>
+        <v>191318</v>
       </c>
       <c r="BE7">
         <v>1</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>35117.83575802093</v>
+        <v>25476.76425959244</v>
       </c>
       <c r="B8">
-        <v>86800.24937621037</v>
+        <v>61853.49095963778</v>
       </c>
       <c r="C8">
-        <v>75611.36259933765</v>
+        <v>74764.36146224983</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1816,70 +1816,70 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10281.14672886404</v>
+        <v>7336.868681399576</v>
       </c>
       <c r="O8">
-        <v>5468.909627334072</v>
+        <v>4046.907725503266</v>
       </c>
       <c r="P8">
-        <v>6611.397428928206</v>
+        <v>4784.809336773416</v>
       </c>
       <c r="Q8">
-        <v>5699.776356990712</v>
+        <v>4056.011395802906</v>
       </c>
       <c r="R8">
-        <v>1711.466823477187</v>
+        <v>1098.571547815271</v>
       </c>
       <c r="S8">
-        <v>1077.28351410434</v>
+        <v>914.5140350231294</v>
       </c>
       <c r="T8">
-        <v>1751.410906916775</v>
+        <v>1288.360574796332</v>
       </c>
       <c r="U8">
-        <v>290.8504592300101</v>
+        <v>183.0612352394082</v>
       </c>
       <c r="V8">
-        <v>440.1755768827686</v>
+        <v>275.9595976083905</v>
       </c>
       <c r="W8">
-        <v>1377.692154419357</v>
+        <v>1056.436847517689</v>
       </c>
       <c r="X8">
-        <v>38.34647181470894</v>
+        <v>399.6011334336843</v>
       </c>
       <c r="Y8">
-        <v>369.3797090587647</v>
+        <v>242.8921360185297</v>
       </c>
       <c r="Z8">
-        <v>296.6254633555964</v>
+        <v>600.9375036446818</v>
       </c>
       <c r="AA8">
-        <v>714.0150579017319</v>
+        <v>478.1831874481064</v>
       </c>
       <c r="AB8">
-        <v>563.631270838919</v>
+        <v>1480.915997178163</v>
       </c>
       <c r="AC8">
-        <v>1626.853135334015</v>
+        <v>4015.922636952532</v>
       </c>
       <c r="AD8">
-        <v>5301.891931909103</v>
+        <v>6143.121101856175</v>
       </c>
       <c r="AE8">
-        <v>8695.382538952174</v>
+        <v>6346.156021301553</v>
       </c>
       <c r="AF8">
-        <v>9312.885573404168</v>
+        <v>12178.14828333969</v>
       </c>
       <c r="AG8">
-        <v>16793.56192872185</v>
+        <v>14527.24909431623</v>
       </c>
       <c r="AH8">
-        <v>20166.67727574459</v>
+        <v>15839.96499758212</v>
       </c>
       <c r="AI8">
-        <v>23328.72520004822</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>26414.58675161905</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>48349.77471063078</v>
       </c>
       <c r="AV8">
-        <v>27346.82873397432</v>
+        <v>41880.45012951569</v>
       </c>
       <c r="AW8">
-        <v>48264.53386536333</v>
+        <v>6086.207969875507</v>
       </c>
       <c r="AX8">
-        <v>40903.84312875134</v>
+        <v>35.66214867936935</v>
       </c>
       <c r="AY8">
-        <v>5720.331379757378</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>-215773.7438001299</v>
+        <v>-48856.36982020957</v>
       </c>
       <c r="BC8">
-        <v>52409.29262077261</v>
+        <v>51373.26730227996</v>
       </c>
       <c r="BD8">
-        <v>201537</v>
+        <v>200259</v>
       </c>
       <c r="BE8">
         <v>1</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>14568.82645270014</v>
+        <v>10010.44776249356</v>
       </c>
       <c r="B9">
-        <v>35115.51420994963</v>
+        <v>23991.32557933494</v>
       </c>
       <c r="C9">
-        <v>32148.90491557448</v>
+        <v>28390.00116715736</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2002,70 +2002,70 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4029.481283999829</v>
+        <v>2899.713846436662</v>
       </c>
       <c r="O9">
-        <v>2326.721974121803</v>
+        <v>1554.121765792889</v>
       </c>
       <c r="P9">
-        <v>2671.159866732337</v>
+        <v>1958.98182996858</v>
       </c>
       <c r="Q9">
-        <v>2352.150286697024</v>
+        <v>1515.963290286455</v>
       </c>
       <c r="R9">
-        <v>694.7937573651708</v>
+        <v>376.9420369917722</v>
       </c>
       <c r="S9">
-        <v>542.3825251802036</v>
+        <v>348.1449739522008</v>
       </c>
       <c r="T9">
-        <v>755.5322318768614</v>
+        <v>507.3094618828095</v>
       </c>
       <c r="U9">
-        <v>110.9102056382377</v>
+        <v>74.44289335515512</v>
       </c>
       <c r="V9">
-        <v>192.7778129980584</v>
+        <v>129.8597606283378</v>
       </c>
       <c r="W9">
-        <v>668.0931602163224</v>
+        <v>439.9743361953557</v>
       </c>
       <c r="X9">
-        <v>28.88325628306437</v>
+        <v>186.0216003204689</v>
       </c>
       <c r="Y9">
-        <v>193.7237947891122</v>
+        <v>96.19460021762477</v>
       </c>
       <c r="Z9">
-        <v>90.99580797704758</v>
+        <v>279.4720444533679</v>
       </c>
       <c r="AA9">
-        <v>226.0395954254259</v>
+        <v>132.3797154821656</v>
       </c>
       <c r="AB9">
-        <v>204.7350249513749</v>
+        <v>573.7245294851211</v>
       </c>
       <c r="AC9">
-        <v>667.4757306989004</v>
+        <v>1362.688953800865</v>
       </c>
       <c r="AD9">
-        <v>2136.594998297674</v>
+        <v>2519.52800220522</v>
       </c>
       <c r="AE9">
-        <v>3696.303647686334</v>
+        <v>2614.261086158422</v>
       </c>
       <c r="AF9">
-        <v>3692.445945783554</v>
+        <v>4749.132373259448</v>
       </c>
       <c r="AG9">
-        <v>7156.255196660924</v>
+        <v>5494.525888066188</v>
       </c>
       <c r="AH9">
-        <v>8494.311037812984</v>
+        <v>6169.418386206521</v>
       </c>
       <c r="AI9">
-        <v>8750.357224655412</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2098,37 +2098,37 @@
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>10319.02367811053</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>18070.97748904684</v>
       </c>
       <c r="AV9">
-        <v>11211.93324200688</v>
+        <v>18490.48288883505</v>
       </c>
       <c r="AW9">
-        <v>20936.97167356759</v>
+        <v>2928.161375464127</v>
       </c>
       <c r="AX9">
-        <v>16360.35729827787</v>
+        <v>18.97196668287807</v>
       </c>
       <c r="AY9">
-        <v>2366.761773924741</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>2.216296802116757</v>
+        <v>0</v>
       </c>
       <c r="BA9">
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>-124355.672642345</v>
+        <v>22202.63705193226</v>
       </c>
       <c r="BC9">
-        <v>21396.27281106689</v>
+        <v>20540.69784043183</v>
       </c>
       <c r="BD9">
-        <v>81836</v>
+        <v>80760</v>
       </c>
       <c r="BE9">
         <v>1</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>19321.47139457977</v>
+        <v>12964.28764097864</v>
       </c>
       <c r="B10">
-        <v>45620.84527123271</v>
+        <v>31761.32113460849</v>
       </c>
       <c r="C10">
-        <v>38985.75168532709</v>
+        <v>39304.47955557361</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2188,70 +2188,70 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5626.009698214237</v>
+        <v>3848.344172511717</v>
       </c>
       <c r="O10">
-        <v>3000.359856239057</v>
+        <v>2009.29502513314</v>
       </c>
       <c r="P10">
-        <v>3928.700717874091</v>
+        <v>2549.680864944598</v>
       </c>
       <c r="Q10">
-        <v>2963.364451666193</v>
+        <v>1901.328128397058</v>
       </c>
       <c r="R10">
-        <v>776.1211198549977</v>
+        <v>584.6900395139484</v>
       </c>
       <c r="S10">
-        <v>685.5012493671244</v>
+        <v>393.2950681129784</v>
       </c>
       <c r="T10">
-        <v>838.0787997354792</v>
+        <v>579.0152386976192</v>
       </c>
       <c r="U10">
-        <v>138.4305855160941</v>
+        <v>123.8656640680563</v>
       </c>
       <c r="V10">
-        <v>322.9991147057511</v>
+        <v>156.2785612281033</v>
       </c>
       <c r="W10">
-        <v>759.2326426913628</v>
+        <v>557.3619645378477</v>
       </c>
       <c r="X10">
-        <v>24.63397298597959</v>
+        <v>229.4142660729643</v>
       </c>
       <c r="Y10">
-        <v>258.0391857294013</v>
+        <v>93.82349249563333</v>
       </c>
       <c r="Z10">
-        <v>129.3686993729438</v>
+        <v>311.4651682671239</v>
       </c>
       <c r="AA10">
-        <v>285.0021219671774</v>
+        <v>285.4456518853737</v>
       </c>
       <c r="AB10">
-        <v>295.9791365944932</v>
+        <v>755.2345840590872</v>
       </c>
       <c r="AC10">
-        <v>895.9893057661967</v>
+        <v>1933.393563985286</v>
       </c>
       <c r="AD10">
-        <v>2871.272925719395</v>
+        <v>3040.875487695562</v>
       </c>
       <c r="AE10">
-        <v>4678.335776832726</v>
+        <v>3450.829210295245</v>
       </c>
       <c r="AF10">
-        <v>4965.018930468467</v>
+        <v>6180.598419099204</v>
       </c>
       <c r="AG10">
-        <v>8968.376859992008</v>
+        <v>7358.574523773853</v>
       </c>
       <c r="AH10">
-        <v>10511.78051582144</v>
+        <v>8351.081033052122</v>
       </c>
       <c r="AI10">
-        <v>12019.72099869787</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -2284,37 +2284,37 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>20642.01866483333</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>18662.46089074028</v>
       </c>
       <c r="AV10">
-        <v>20347.2075159953</v>
+        <v>19434.50077505799</v>
       </c>
       <c r="AW10">
-        <v>18638.54416933179</v>
+        <v>2908.686382306128</v>
       </c>
       <c r="AX10">
-        <v>20637.7289270133</v>
+        <v>31.14080621437542</v>
       </c>
       <c r="AY10">
-        <v>2736.517402997406</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>0.5778415462316473</v>
       </c>
       <c r="BA10">
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>-201194.2963060345</v>
+        <v>33129.11082450955</v>
       </c>
       <c r="BC10">
-        <v>27990.52948300084</v>
+        <v>26751.4087271326</v>
       </c>
       <c r="BD10">
-        <v>106195</v>
+        <v>104348</v>
       </c>
       <c r="BE10">
         <v>1</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>2747.808933138781</v>
+        <v>1909.970473342576</v>
       </c>
       <c r="B11">
-        <v>6712.413813657466</v>
+        <v>4521.544130819764</v>
       </c>
       <c r="C11">
-        <v>5732.756543410557</v>
+        <v>5568.623715299938</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2374,70 +2374,70 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>768.0860328444908</v>
+        <v>526.2073078273455</v>
       </c>
       <c r="O11">
-        <v>431.5858827223813</v>
+        <v>290.3097406826639</v>
       </c>
       <c r="P11">
-        <v>530.4201529921554</v>
+        <v>401.1319062040769</v>
       </c>
       <c r="Q11">
-        <v>425.547233379358</v>
+        <v>279.5575398310635</v>
       </c>
       <c r="R11">
-        <v>135.3021791640104</v>
+        <v>86.69122223339896</v>
       </c>
       <c r="S11">
-        <v>99.98200975843935</v>
+        <v>61.94905683775523</v>
       </c>
       <c r="T11">
-        <v>147.9378443142713</v>
+        <v>96.16929443796772</v>
       </c>
       <c r="U11">
-        <v>21.21272851557094</v>
+        <v>15.54681641571927</v>
       </c>
       <c r="V11">
-        <v>36.14387263694496</v>
+        <v>25.16073701840662</v>
       </c>
       <c r="W11">
-        <v>102.2891710923773</v>
+        <v>92.89342913095415</v>
       </c>
       <c r="X11">
-        <v>4.588403460536637</v>
+        <v>25.75057428585574</v>
       </c>
       <c r="Y11">
-        <v>44.71342225824525</v>
+        <v>21.493049009705</v>
       </c>
       <c r="Z11">
-        <v>18.12430430039036</v>
+        <v>40.35743664753352</v>
       </c>
       <c r="AA11">
-        <v>51.07593039136737</v>
+        <v>35.91845551847034</v>
       </c>
       <c r="AB11">
-        <v>39.72779265407514</v>
+        <v>102.2109280872641</v>
       </c>
       <c r="AC11">
-        <v>153.4391718508471</v>
+        <v>286.7824173159768</v>
       </c>
       <c r="AD11">
-        <v>398.305845583479</v>
+        <v>464.8033292981035</v>
       </c>
       <c r="AE11">
-        <v>661.8631265464003</v>
+        <v>479.9992899363747</v>
       </c>
       <c r="AF11">
-        <v>720.1016643401564</v>
+        <v>880.3265002196035</v>
       </c>
       <c r="AG11">
-        <v>1356.909300115219</v>
+        <v>1026.563524327168</v>
       </c>
       <c r="AH11">
-        <v>1547.541048129382</v>
+        <v>1183.089200459565</v>
       </c>
       <c r="AI11">
-        <v>1765.32562974615</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2470,37 +2470,37 @@
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2896.737221507899</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>2671.88649379204</v>
       </c>
       <c r="AV11">
-        <v>2961.489394126693</v>
+        <v>2824.056992982336</v>
       </c>
       <c r="AW11">
-        <v>2771.267149283864</v>
+        <v>406.2380405088833</v>
       </c>
       <c r="AX11">
-        <v>3028.553849087804</v>
+        <v>7.602546733744578</v>
       </c>
       <c r="AY11">
-        <v>409.7185219744489</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>1.000301703624279</v>
       </c>
       <c r="BA11">
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>-24020.92573192546</v>
+        <v>1211.525742714719</v>
       </c>
       <c r="BC11">
-        <v>4032.931672167672</v>
+        <v>3932.305533991518</v>
       </c>
       <c r="BD11">
-        <v>15390</v>
+        <v>15235</v>
       </c>
       <c r="BE11">
         <v>1</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>75.3073598741689</v>
+        <v>53.37526589469477</v>
       </c>
       <c r="B12">
-        <v>182.6280029572655</v>
+        <v>126.9129621439968</v>
       </c>
       <c r="C12">
-        <v>156.9738919473977</v>
+        <v>145.5052991287546</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2560,70 +2560,70 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.36080009581186</v>
+        <v>14.9398923708697</v>
       </c>
       <c r="O12">
-        <v>11.57707186060246</v>
+        <v>8.406900964720824</v>
       </c>
       <c r="P12">
-        <v>14.16560279318998</v>
+        <v>11.37613587977677</v>
       </c>
       <c r="Q12">
-        <v>12.6622858140009</v>
+        <v>7.755940726612175</v>
       </c>
       <c r="R12">
-        <v>3.641495458403168</v>
+        <v>1.820022227250314</v>
       </c>
       <c r="S12">
-        <v>2.297054143738561</v>
+        <v>1.546816675668956</v>
       </c>
       <c r="T12">
-        <v>3.573535251284992</v>
+        <v>2.687302280004042</v>
       </c>
       <c r="U12">
-        <v>0.7537109197128573</v>
+        <v>0.3780060570803699</v>
       </c>
       <c r="V12">
-        <v>1.249523295434518</v>
+        <v>0.8984464647471793</v>
       </c>
       <c r="W12">
-        <v>2.693954003298157</v>
+        <v>2.619863806825794</v>
       </c>
       <c r="X12">
-        <v>0.2322877238539645</v>
+        <v>0.8660239489714262</v>
       </c>
       <c r="Y12">
-        <v>1.093125837314385</v>
+        <v>0.5826152640657955</v>
       </c>
       <c r="Z12">
-        <v>0.4364970609985008</v>
+        <v>1.549190492432031</v>
       </c>
       <c r="AA12">
-        <v>1.31313554515159</v>
+        <v>0.9721406013356269</v>
       </c>
       <c r="AB12">
-        <v>1.227448009255594</v>
+        <v>2.876939492596019</v>
       </c>
       <c r="AC12">
-        <v>3.340971688124699</v>
+        <v>7.784205218831309</v>
       </c>
       <c r="AD12">
-        <v>11.24957313166454</v>
+        <v>12.08588735228858</v>
       </c>
       <c r="AE12">
-        <v>18.33418246361959</v>
+        <v>13.992129415625</v>
       </c>
       <c r="AF12">
-        <v>19.61148847189388</v>
+        <v>24.96460455201902</v>
       </c>
       <c r="AG12">
-        <v>35.41428955372322</v>
+        <v>29.64727692098968</v>
       </c>
       <c r="AH12">
-        <v>44.24109214282778</v>
+        <v>32.45797283381372</v>
       </c>
       <c r="AI12">
-        <v>47.45932489000607</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -2656,37 +2656,37 @@
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>76.9361771162191</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>68.5691220125355</v>
       </c>
       <c r="AV12">
-        <v>81.78599314608412</v>
+        <v>81.07265968394916</v>
       </c>
       <c r="AW12">
-        <v>75.18789880131361</v>
+        <v>11.97969697805625</v>
       </c>
       <c r="AX12">
-        <v>85.11693742639399</v>
+        <v>0.07991449216721989</v>
       </c>
       <c r="AY12">
-        <v>10.97578684083515</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
-        <v>0.006912677523089157</v>
+        <v>0</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>-528.6378460510819</v>
+        <v>13.57889334005386</v>
       </c>
       <c r="BC12">
-        <v>108.9073885018622</v>
+        <v>106.0066015435215</v>
       </c>
       <c r="BD12">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="BE12">
         <v>1</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>10813.25657267881</v>
+        <v>7630.707325114375</v>
       </c>
       <c r="B13">
-        <v>26970.53932404792</v>
+        <v>18354.649550002</v>
       </c>
       <c r="C13">
-        <v>23407.76282475735</v>
+        <v>21116.29613106277</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2746,70 +2746,70 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3285.504815356726</v>
+        <v>2138.493264068286</v>
       </c>
       <c r="O13">
-        <v>1648.439486347965</v>
+        <v>1242.574738755764</v>
       </c>
       <c r="P13">
-        <v>2203.126418972742</v>
+        <v>1520.825095609827</v>
       </c>
       <c r="Q13">
-        <v>1636.22068438091</v>
+        <v>1146.604007957538</v>
       </c>
       <c r="R13">
-        <v>463.6149064090937</v>
+        <v>358.1538594875462</v>
       </c>
       <c r="S13">
-        <v>322.3983607434973</v>
+        <v>232.8228077494085</v>
       </c>
       <c r="T13">
-        <v>413.9819712387268</v>
+        <v>350.7757571521614</v>
       </c>
       <c r="U13">
-        <v>102.5386117724876</v>
+        <v>77.21646280127733</v>
       </c>
       <c r="V13">
-        <v>145.5782161432414</v>
+        <v>101.4612738751079</v>
       </c>
       <c r="W13">
-        <v>417.7359148601898</v>
+        <v>351.7068600573427</v>
       </c>
       <c r="X13">
-        <v>10.315989086659</v>
+        <v>102.664436545303</v>
       </c>
       <c r="Y13">
-        <v>163.8011973665762</v>
+        <v>69.79261795827028</v>
       </c>
       <c r="Z13">
-        <v>80.43930106869021</v>
+        <v>246.5868472577885</v>
       </c>
       <c r="AA13">
-        <v>254.4852621709173</v>
+        <v>131.8774644867689</v>
       </c>
       <c r="AB13">
-        <v>185.8851251656012</v>
+        <v>378.6784847352674</v>
       </c>
       <c r="AC13">
-        <v>546.3126695004912</v>
+        <v>1061.492087049332</v>
       </c>
       <c r="AD13">
-        <v>1651.227306151466</v>
+        <v>1965.047563712029</v>
       </c>
       <c r="AE13">
-        <v>2668.496144261747</v>
+        <v>1945.718432440048</v>
       </c>
       <c r="AF13">
-        <v>2899.424853390178</v>
+        <v>3646.087424858757</v>
       </c>
       <c r="AG13">
-        <v>5485.872732038406</v>
+        <v>4157.872330440056</v>
       </c>
       <c r="AH13">
-        <v>6088.813846441765</v>
+        <v>4751.496297063687</v>
       </c>
       <c r="AI13">
-        <v>7109.582083858661</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>11159.86732413703</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>9956.428806925742</v>
       </c>
       <c r="AV13">
-        <v>11946.55200938614</v>
+        <v>12516.20641810218</v>
       </c>
       <c r="AW13">
-        <v>11461.21081537121</v>
+        <v>1729.634795828824</v>
       </c>
       <c r="AX13">
-        <v>12785.52387748452</v>
+        <v>7.408761054814061</v>
       </c>
       <c r="AY13">
-        <v>1857.315745185553</v>
+        <v>0</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>-80024.73478535215</v>
+        <v>9953.862834829244</v>
       </c>
       <c r="BC13">
-        <v>16110.51814344505</v>
+        <v>15656.32437404138</v>
       </c>
       <c r="BD13">
-        <v>61542</v>
+        <v>60856</v>
       </c>
       <c r="BE13">
         <v>1</v>
